--- a/biology/Médecine/Lematte_et_Boinot/Lematte_et_Boinot.xlsx
+++ b/biology/Médecine/Lematte_et_Boinot/Lematte_et_Boinot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Lematte et Boinot est un laboratoire pharmaceutique français ayant exercé son activité de 1910 à 1977 avant d'être racheté puis intégré au groupe Astra-Zeneca.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le laboratoire été créé en 1910 par M. Chevretin, pharmacien au 24 rue Caumartin à Paris. Sa première spécialité étant un médicament anti-asthénique le Biocalcose.
 Avec l'arrivée d'un associé, Louis Lematte, le laboratoire prendra le nom de Chevretin-Lematte après la Première Guerre mondiale.
@@ -550,7 +564,9 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le laboratoire Lematte et Boinot a développé des années 1930 aux années 1960 de nombreux médicaments dont beaucoup dérivés de l'acécolyne pour le traitement des ramollissements cérébraux, des ictus, de l'artérite et de l'hypertension. Citons parmi eux, les produits suivants : Hypotan, Nicyl, Papavérine, Nicobion ou Pressyl. Notons également un médicament utilisé dans la régulation de l'activité hépato-biliaire, l'Héparexine.
 </t>
